--- a/src/results/7 days.xlsx
+++ b/src/results/7 days.xlsx
@@ -1979,10 +1979,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
